--- a/gamma_cross_sections/io/outputs/data/cross_section.xlsx
+++ b/gamma_cross_sections/io/outputs/data/cross_section.xlsx
@@ -462,9 +462,15 @@
       <c r="B2" t="n">
         <v>31</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1.236943580958959e-29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.030566044183256e-31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.652458721354297e-29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -490,9 +496,15 @@
       <c r="B4" t="n">
         <v>81</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2.478386258082563e-30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.387702135562965e-32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.652458721354297e-29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -501,9 +513,15 @@
       <c r="B5" t="n">
         <v>356</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1.170192421180405e-30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.051214936270436e-31</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.652458721354297e-29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -512,9 +530,15 @@
       <c r="B6" t="n">
         <v>511</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>1.077782430867818e-30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.967254681851096e-32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.652458721354297e-29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -540,9 +564,15 @@
       <c r="B8" t="n">
         <v>1275</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>7.786602954091923e-31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.766717201428916e-31</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.652458721354297e-29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gamma_cross_sections/io/outputs/data/cross_section.xlsx
+++ b/gamma_cross_sections/io/outputs/data/cross_section.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>thomson</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>d_thomson</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -463,13 +468,16 @@
         <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>1.236943580958959e-29</v>
+        <v>2.706292830616987e-30</v>
       </c>
       <c r="D2" t="n">
-        <v>2.030566044183256e-31</v>
+        <v>4.169523577880892e-32</v>
       </c>
       <c r="E2" t="n">
-        <v>6.652458721354297e-29</v>
+        <v>6.652458721354302e-29</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.089603650513666e-38</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +488,16 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>7.234399600585099e-30</v>
+        <v>1.671436234244726e-30</v>
       </c>
       <c r="D3" t="n">
-        <v>2.449626848397328e-31</v>
+        <v>5.659619734661688e-32</v>
       </c>
       <c r="E3" t="n">
-        <v>6.652458721354297e-29</v>
+        <v>6.652458721354302e-29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.089603650513666e-38</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +508,16 @@
         <v>81</v>
       </c>
       <c r="C4" t="n">
-        <v>2.478386258082563e-30</v>
+        <v>5.447411529868519e-31</v>
       </c>
       <c r="D4" t="n">
-        <v>8.387702135562965e-32</v>
+        <v>1.324136866993893e-32</v>
       </c>
       <c r="E4" t="n">
-        <v>6.652458721354297e-29</v>
+        <v>6.652458721354302e-29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.089603650513666e-38</v>
       </c>
     </row>
     <row r="5">
@@ -514,13 +528,16 @@
         <v>356</v>
       </c>
       <c r="C5" t="n">
-        <v>1.170192421180405e-30</v>
+        <v>2.997252158003094e-31</v>
       </c>
       <c r="D5" t="n">
-        <v>1.051214936270436e-31</v>
+        <v>1.296765517649e-32</v>
       </c>
       <c r="E5" t="n">
-        <v>6.652458721354297e-29</v>
+        <v>6.652458721354302e-29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.089603650513666e-38</v>
       </c>
     </row>
     <row r="6">
@@ -531,13 +548,16 @@
         <v>511</v>
       </c>
       <c r="C6" t="n">
-        <v>1.077782430867818e-30</v>
+        <v>2.490109348451165e-31</v>
       </c>
       <c r="D6" t="n">
-        <v>6.967254681851096e-32</v>
+        <v>1.609715051891146e-32</v>
       </c>
       <c r="E6" t="n">
-        <v>6.652458721354297e-29</v>
+        <v>6.652458721354302e-29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.089603650513666e-38</v>
       </c>
     </row>
     <row r="7">
@@ -548,13 +568,16 @@
         <v>662</v>
       </c>
       <c r="C7" t="n">
-        <v>1.067851467831129e-30</v>
+        <v>2.467164843893904e-31</v>
       </c>
       <c r="D7" t="n">
-        <v>9.220682159452271e-32</v>
+        <v>2.130347107798132e-32</v>
       </c>
       <c r="E7" t="n">
-        <v>6.652458721354297e-29</v>
+        <v>6.652458721354302e-29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.089603650513666e-38</v>
       </c>
     </row>
     <row r="8">
@@ -565,13 +588,16 @@
         <v>1275</v>
       </c>
       <c r="C8" t="n">
-        <v>7.786602954091923e-31</v>
+        <v>1.799017339060681e-31</v>
       </c>
       <c r="D8" t="n">
-        <v>1.766717201428916e-31</v>
+        <v>4.081824766623204e-32</v>
       </c>
       <c r="E8" t="n">
-        <v>6.652458721354297e-29</v>
+        <v>6.652458721354302e-29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.089603650513666e-38</v>
       </c>
     </row>
   </sheetData>
